--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1384.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1384.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.315012549406768</v>
+        <v>1.200120687484741</v>
       </c>
       <c r="B1">
-        <v>2.537931710775874</v>
+        <v>2.36167049407959</v>
       </c>
       <c r="C1">
-        <v>3.234849176185348</v>
+        <v>6.889366149902344</v>
       </c>
       <c r="D1">
-        <v>3.435062873701434</v>
+        <v>2.314332008361816</v>
       </c>
       <c r="E1">
-        <v>1.063136128659095</v>
+        <v>1.180145859718323</v>
       </c>
     </row>
   </sheetData>
